--- a/2021-02-10.xlsx
+++ b/2021-02-10.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E6006-0F6A-40D2-BEB3-B751DD2F55AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C99700-D88F-4769-B118-DB0CFBEC31F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_09.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_09.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_10.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_10.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_09.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_09.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_09.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_09.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_10.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_10.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_10.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_10.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -214,16 +214,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Datenstand: 10.02.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 09.02.21 (Gesamt_bis_einschl_09.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 09.02.21 durchgeführt und bis zum 10.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 09.02.21 (Indik_bis_einschl_09.02.21)</t>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 10.02.21 (Gesamt_bis_einschl_10.02.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 11.02.2021, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.02.21 durchgeführt und bis zum 11.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 10.02.21 (Indik_bis_einschl_10.02.21)</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -753,6 +752,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,73 +1302,73 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="9"/>
-    <col min="7" max="7" width="12.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="13" style="41" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" style="41"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="67" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="G3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1392,8 +1392,8 @@
       <c r="L3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="55"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1403,40 +1403,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="34">
-        <v>421154</v>
+        <v>436223</v>
       </c>
       <c r="D4" s="17">
-        <v>301407</v>
+        <v>310601</v>
       </c>
       <c r="E4" s="17">
-        <v>289605</v>
+        <v>298129</v>
       </c>
       <c r="F4" s="17">
-        <v>11802</v>
+        <v>12472</v>
       </c>
       <c r="G4" s="17">
         <v>0</v>
       </c>
       <c r="H4" s="17">
-        <v>8674</v>
+        <v>8684</v>
       </c>
       <c r="I4" s="33">
-        <v>2.7152819980984457</v>
+        <v>2.7981078869813087</v>
       </c>
       <c r="J4" s="30">
-        <v>119747</v>
+        <v>125622</v>
       </c>
       <c r="K4" s="17">
-        <v>119737</v>
+        <v>125620</v>
       </c>
       <c r="L4" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="18">
-        <v>6397</v>
-      </c>
-      <c r="N4" s="53">
-        <v>1.0787635105564721</v>
+        <v>5693</v>
+      </c>
+      <c r="N4" s="52">
+        <v>1.1316895598480559</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1447,40 +1447,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <v>614925</v>
+        <v>634320</v>
       </c>
       <c r="D5" s="22">
-        <v>406322</v>
+        <v>421168</v>
       </c>
       <c r="E5" s="22">
-        <v>394316</v>
+        <v>407966</v>
       </c>
       <c r="F5" s="22">
-        <v>11992</v>
+        <v>12026</v>
       </c>
       <c r="G5" s="22">
-        <v>14</v>
+        <v>1176</v>
       </c>
       <c r="H5" s="23">
-        <v>12466</v>
+        <v>14846</v>
       </c>
       <c r="I5" s="24">
-        <v>3.0958487015777916</v>
+        <v>3.2089633491322531</v>
       </c>
       <c r="J5" s="31">
-        <v>208603</v>
+        <v>213152</v>
       </c>
       <c r="K5" s="22">
-        <v>208603</v>
+        <v>212797</v>
       </c>
       <c r="L5" s="22">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="M5" s="23">
-        <v>5618</v>
+        <v>4549</v>
       </c>
       <c r="N5" s="24">
-        <v>1.5893880387850821</v>
+        <v>1.6240477809193434</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1491,40 +1491,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="34">
-        <v>179863</v>
+        <v>184559</v>
       </c>
       <c r="D6" s="17">
-        <v>122135</v>
+        <v>124426</v>
       </c>
       <c r="E6" s="17">
-        <v>118202</v>
+        <v>120163</v>
       </c>
       <c r="F6" s="17">
-        <v>3933</v>
+        <v>4056</v>
       </c>
       <c r="G6" s="17">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H6" s="18">
-        <v>2118</v>
+        <v>2291</v>
       </c>
       <c r="I6" s="19">
-        <v>3.32839077681346</v>
+        <v>3.3908245039979663</v>
       </c>
       <c r="J6" s="30">
-        <v>57728</v>
+        <v>60133</v>
       </c>
       <c r="K6" s="17">
-        <v>57728</v>
+        <v>60133</v>
       </c>
       <c r="L6" s="17">
         <v>0</v>
       </c>
       <c r="M6" s="18">
-        <v>2243</v>
+        <v>2405</v>
       </c>
       <c r="N6" s="19">
-        <v>1.5731882160223314</v>
+        <v>1.6387286411112603</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1535,40 +1535,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="35">
-        <v>113127</v>
+        <v>120153</v>
       </c>
       <c r="D7" s="22">
-        <v>79666</v>
+        <v>80169</v>
       </c>
       <c r="E7" s="22">
-        <v>76590</v>
+        <v>76753</v>
       </c>
       <c r="F7" s="22">
-        <v>3076</v>
+        <v>3416</v>
       </c>
       <c r="G7" s="22">
         <v>0</v>
       </c>
       <c r="H7" s="23">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="I7" s="24">
-        <v>3.1589762135031103</v>
+        <v>3.178921548217946</v>
       </c>
       <c r="J7" s="31">
-        <v>33461</v>
+        <v>39984</v>
       </c>
       <c r="K7" s="22">
-        <v>33461</v>
+        <v>39984</v>
       </c>
       <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="M7" s="23">
-        <v>3055</v>
+        <v>6523</v>
       </c>
       <c r="N7" s="24">
-        <v>1.3268207651950339</v>
+        <v>1.5854756724412971</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1579,40 +1579,40 @@
         <v>4</v>
       </c>
       <c r="C8" s="34">
-        <v>33421</v>
+        <v>34513</v>
       </c>
       <c r="D8" s="17">
-        <v>22764</v>
+        <v>23132</v>
       </c>
       <c r="E8" s="17">
-        <v>21488</v>
+        <v>21801</v>
       </c>
       <c r="F8" s="17">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="G8" s="17">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H8" s="18">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="I8" s="19">
-        <v>3.3417400418671703</v>
+        <v>3.395762196822675</v>
       </c>
       <c r="J8" s="30">
-        <v>10657</v>
+        <v>11381</v>
       </c>
       <c r="K8" s="17">
-        <v>10657</v>
+        <v>11006</v>
       </c>
       <c r="L8" s="17">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M8" s="18">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="N8" s="19">
-        <v>1.5644405036978752</v>
+        <v>1.670723221599467</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1623,40 +1623,40 @@
         <v>5</v>
       </c>
       <c r="C9" s="35">
-        <v>83752</v>
+        <v>88165</v>
       </c>
       <c r="D9" s="22">
-        <v>57231</v>
+        <v>59542</v>
       </c>
       <c r="E9" s="22">
-        <v>55617</v>
+        <v>57191</v>
       </c>
       <c r="F9" s="22">
         <v>1604</v>
       </c>
       <c r="G9" s="22">
-        <v>10</v>
+        <v>747</v>
       </c>
       <c r="H9" s="23">
-        <v>1158</v>
+        <v>2117</v>
       </c>
       <c r="I9" s="24">
-        <v>3.0981679282697066</v>
+        <v>3.2232726107360499</v>
       </c>
       <c r="J9" s="31">
-        <v>26521</v>
+        <v>28623</v>
       </c>
       <c r="K9" s="22">
-        <v>26521</v>
+        <v>28623</v>
       </c>
       <c r="L9" s="22">
         <v>0</v>
       </c>
       <c r="M9" s="23">
-        <v>2226</v>
+        <v>1700</v>
       </c>
       <c r="N9" s="24">
-        <v>1.4356993871440458</v>
+        <v>1.5494899724076778</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1667,40 +1667,40 @@
         <v>15</v>
       </c>
       <c r="C10" s="34">
-        <v>239310</v>
+        <v>247173</v>
       </c>
       <c r="D10" s="17">
-        <v>170502</v>
+        <v>175219</v>
       </c>
       <c r="E10" s="17">
-        <v>168906</v>
+        <v>173086</v>
       </c>
       <c r="F10" s="17">
-        <v>1596</v>
+        <v>1946</v>
       </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="H10" s="18">
-        <v>5511</v>
+        <v>4717</v>
       </c>
       <c r="I10" s="19">
-        <v>2.711511303927431</v>
+        <v>2.7865262528466559</v>
       </c>
       <c r="J10" s="30">
-        <v>68808</v>
+        <v>71954</v>
       </c>
       <c r="K10" s="17">
-        <v>68808</v>
+        <v>71954</v>
       </c>
       <c r="L10" s="17">
         <v>0</v>
       </c>
       <c r="M10" s="18">
-        <v>3322</v>
+        <v>3146</v>
       </c>
       <c r="N10" s="19">
-        <v>1.0942608872660653</v>
+        <v>1.14429205735296</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1711,13 +1711,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="36">
-        <v>89006</v>
+        <v>93200</v>
       </c>
       <c r="D11" s="22">
-        <v>62865</v>
+        <v>64308</v>
       </c>
       <c r="E11" s="22">
-        <v>61106</v>
+        <v>62549</v>
       </c>
       <c r="F11" s="22">
         <v>1759</v>
@@ -1726,25 +1726,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="23">
-        <v>668</v>
+        <v>1391</v>
       </c>
       <c r="I11" s="24">
-        <v>3.9091794360931713</v>
+        <v>3.9989105412595189</v>
       </c>
       <c r="J11" s="31">
-        <v>26141</v>
+        <v>28892</v>
       </c>
       <c r="K11" s="22">
-        <v>26141</v>
+        <v>28892</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>
       </c>
       <c r="M11" s="23">
-        <v>2619</v>
+        <v>2654</v>
       </c>
       <c r="N11" s="24">
-        <v>1.6255445739109455</v>
+        <v>1.7966119823050013</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1755,40 +1755,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="34">
-        <v>279784</v>
+        <v>287292</v>
       </c>
       <c r="D12" s="17">
-        <v>187553</v>
+        <v>191965</v>
       </c>
       <c r="E12" s="17">
-        <v>183177</v>
+        <v>187327</v>
       </c>
       <c r="F12" s="17">
-        <v>4376</v>
+        <v>4541</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H12" s="18">
-        <v>3096</v>
+        <v>4156</v>
       </c>
       <c r="I12" s="19">
-        <v>2.3462871834595842</v>
+        <v>2.4014812835455528</v>
       </c>
       <c r="J12" s="30">
-        <v>92231</v>
+        <v>95327</v>
       </c>
       <c r="K12" s="17">
-        <v>92231</v>
+        <v>95327</v>
       </c>
       <c r="L12" s="17">
         <v>0</v>
       </c>
       <c r="M12" s="18">
-        <v>2819</v>
+        <v>2895</v>
       </c>
       <c r="N12" s="19">
-        <v>1.1538093937055709</v>
+        <v>1.1925403397314456</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1799,40 +1799,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="35">
-        <v>705386</v>
+        <v>764478</v>
       </c>
       <c r="D13" s="22">
-        <v>475747</v>
+        <v>510546</v>
       </c>
       <c r="E13" s="22">
-        <v>464292</v>
+        <v>494106</v>
       </c>
       <c r="F13" s="22">
-        <v>11455</v>
+        <v>13408</v>
       </c>
       <c r="G13" s="22">
-        <v>0</v>
+        <v>3032</v>
       </c>
       <c r="H13" s="23">
-        <v>12170</v>
+        <v>19773</v>
       </c>
       <c r="I13" s="24">
-        <v>2.6508115100382392</v>
+        <v>2.8447078241249719</v>
       </c>
       <c r="J13" s="31">
-        <v>229639</v>
+        <v>253932</v>
       </c>
       <c r="K13" s="22">
-        <v>229639</v>
+        <v>253932</v>
       </c>
       <c r="L13" s="22">
         <v>0</v>
       </c>
       <c r="M13" s="23">
-        <v>7985</v>
+        <v>11183</v>
       </c>
       <c r="N13" s="24">
-        <v>1.2795239998437642</v>
+        <v>1.4148820031803253</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1843,13 +1843,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="34">
-        <v>216076</v>
+        <v>224702</v>
       </c>
       <c r="D14" s="17">
-        <v>147196</v>
+        <v>148262</v>
       </c>
       <c r="E14" s="17">
-        <v>143276</v>
+        <v>144342</v>
       </c>
       <c r="F14" s="17">
         <v>3920</v>
@@ -1858,25 +1858,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="18">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="I14" s="19">
-        <v>3.595493102792128</v>
+        <v>3.6215318242762464</v>
       </c>
       <c r="J14" s="30">
-        <v>68880</v>
+        <v>76440</v>
       </c>
       <c r="K14" s="17">
-        <v>68880</v>
+        <v>76440</v>
       </c>
       <c r="L14" s="17">
         <v>0</v>
       </c>
       <c r="M14" s="18">
-        <v>7486</v>
+        <v>7528</v>
       </c>
       <c r="N14" s="19">
-        <v>1.68250200358924</v>
+        <v>1.8671668576417173</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1887,40 +1887,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="35">
-        <v>41770</v>
+        <v>43581</v>
       </c>
       <c r="D15" s="22">
-        <v>26444</v>
+        <v>28066</v>
       </c>
       <c r="E15" s="22">
-        <v>24990</v>
+        <v>26490</v>
       </c>
       <c r="F15" s="22">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="G15" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H15" s="23">
-        <v>774</v>
+        <v>1621</v>
       </c>
       <c r="I15" s="24">
-        <v>2.6795367656074101</v>
+        <v>2.843891955208651</v>
       </c>
       <c r="J15" s="31">
-        <v>15326</v>
+        <v>15515</v>
       </c>
       <c r="K15" s="22">
-        <v>15326</v>
+        <v>15515</v>
       </c>
       <c r="L15" s="22">
         <v>0</v>
       </c>
       <c r="M15" s="23">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="N15" s="24">
-        <v>1.5529640171569794</v>
+        <v>1.5721151459082954</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1931,40 +1931,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="34">
-        <v>164454</v>
+        <v>170296</v>
       </c>
       <c r="D16" s="17">
-        <v>115273</v>
+        <v>117961</v>
       </c>
       <c r="E16" s="17">
-        <v>112169</v>
+        <v>114604</v>
       </c>
       <c r="F16" s="17">
-        <v>3104</v>
+        <v>3357</v>
       </c>
       <c r="G16" s="17">
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>3573</v>
+        <v>2688</v>
       </c>
       <c r="I16" s="19">
-        <v>2.8308895127200069</v>
+        <v>2.8969017706658517</v>
       </c>
       <c r="J16" s="30">
-        <v>49181</v>
+        <v>52335</v>
       </c>
       <c r="K16" s="17">
-        <v>49181</v>
+        <v>52335</v>
       </c>
       <c r="L16" s="17">
         <v>0</v>
       </c>
       <c r="M16" s="18">
-        <v>3992</v>
+        <v>3154</v>
       </c>
       <c r="N16" s="19">
-        <v>1.2077934739712046</v>
+        <v>1.2852498212781969</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1975,40 +1975,40 @@
         <v>10</v>
       </c>
       <c r="C17" s="35">
-        <v>90979</v>
+        <v>94397</v>
       </c>
       <c r="D17" s="22">
-        <v>59110</v>
+        <v>60685</v>
       </c>
       <c r="E17" s="22">
-        <v>57564</v>
+        <v>58705</v>
       </c>
       <c r="F17" s="22">
-        <v>1546</v>
+        <v>1611</v>
       </c>
       <c r="G17" s="22">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="H17" s="23">
-        <v>896</v>
+        <v>1575</v>
       </c>
       <c r="I17" s="24">
-        <v>2.6932059767211505</v>
+        <v>2.7649670901255798</v>
       </c>
       <c r="J17" s="31">
-        <v>31869</v>
+        <v>33712</v>
       </c>
       <c r="K17" s="22">
-        <v>31569</v>
+        <v>33412</v>
       </c>
       <c r="L17" s="22">
         <v>300</v>
       </c>
       <c r="M17" s="23">
-        <v>1357</v>
+        <v>1843</v>
       </c>
       <c r="N17" s="24">
-        <v>1.4520348718004794</v>
+        <v>1.5360067651365832</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2019,40 +2019,40 @@
         <v>11</v>
       </c>
       <c r="C18" s="34">
-        <v>139640</v>
+        <v>144055</v>
       </c>
       <c r="D18" s="17">
-        <v>99871</v>
+        <v>101078</v>
       </c>
       <c r="E18" s="17">
-        <v>98747</v>
+        <v>99855</v>
       </c>
       <c r="F18" s="17">
-        <v>1124</v>
+        <v>1223</v>
       </c>
       <c r="G18" s="17">
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <v>1126</v>
+        <v>1207</v>
       </c>
       <c r="I18" s="19">
-        <v>3.4393528695252695</v>
+        <v>3.4809194795874197</v>
       </c>
       <c r="J18" s="30">
-        <v>39769</v>
+        <v>42977</v>
       </c>
       <c r="K18" s="17">
-        <v>39769</v>
+        <v>42977</v>
       </c>
       <c r="L18" s="17">
         <v>0</v>
       </c>
       <c r="M18" s="18">
-        <v>3351</v>
+        <v>2910</v>
       </c>
       <c r="N18" s="19">
-        <v>1.3695629789243169</v>
+        <v>1.4800399342510588</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2063,40 +2063,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="35">
-        <v>97013</v>
+        <v>102041</v>
       </c>
       <c r="D19" s="22">
-        <v>71070</v>
+        <v>73295</v>
       </c>
       <c r="E19" s="22">
-        <v>68031</v>
+        <v>70252</v>
       </c>
       <c r="F19" s="22">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="G19" s="22">
         <v>0</v>
       </c>
       <c r="H19" s="23">
-        <v>3047</v>
+        <v>2218</v>
       </c>
       <c r="I19" s="24">
-        <v>3.3313365001420285</v>
+        <v>3.4356311914719289</v>
       </c>
       <c r="J19" s="31">
-        <v>25943</v>
+        <v>28746</v>
       </c>
       <c r="K19" s="22">
-        <v>25943</v>
+        <v>28746</v>
       </c>
       <c r="L19" s="22">
         <v>0</v>
       </c>
       <c r="M19" s="23">
-        <v>2445</v>
+        <v>2749</v>
       </c>
       <c r="N19" s="24">
-        <v>1.2160526638973497</v>
+        <v>1.3474405379637364</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2106,51 +2106,51 @@
       </c>
       <c r="C20" s="37">
         <f>D20+J20</f>
-        <v>3509660</v>
+        <v>3669148</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>2405156</v>
+        <v>2490423</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>2338076</v>
+        <v>2413319</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>67037</v>
+        <v>71107</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>43</v>
+        <v>5997</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>56293</v>
+        <v>68425</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>2.8919696006735194</v>
+        <v>2.9944949969225068</v>
       </c>
       <c r="J20" s="29">
         <f>SUM(J4:J19)</f>
-        <v>1104504</v>
+        <v>1178725</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1104194</v>
+        <v>1177693</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1032</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>55744</v>
+        <v>59847</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>1.3280602138997657</v>
+        <v>1.4173038537017533</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,28 +2210,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="27" t="s">
         <v>23</v>
       </c>
@@ -2265,28 +2265,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <v>171862</v>
+        <v>177265</v>
       </c>
       <c r="D3" s="18">
-        <v>103845</v>
+        <v>106920</v>
       </c>
       <c r="E3" s="18">
-        <v>10078</v>
+        <v>10272</v>
       </c>
       <c r="F3" s="21">
-        <v>57722</v>
+        <v>59288</v>
       </c>
       <c r="G3" s="20">
-        <v>71996</v>
+        <v>75463</v>
       </c>
       <c r="H3" s="18">
-        <v>39350</v>
+        <v>41493</v>
       </c>
       <c r="I3" s="18">
-        <v>2151</v>
+        <v>2238</v>
       </c>
       <c r="J3" s="21">
-        <v>21710</v>
+        <v>22901</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,28 +2297,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
-        <v>151755</v>
+        <v>158372</v>
       </c>
       <c r="D4" s="23">
-        <v>203476</v>
+        <v>210226</v>
       </c>
       <c r="E4" s="23">
-        <v>9903</v>
+        <v>10211</v>
       </c>
       <c r="F4" s="25">
-        <v>98045</v>
+        <v>99630</v>
       </c>
       <c r="G4" s="26">
-        <v>69268</v>
+        <v>70417</v>
       </c>
       <c r="H4" s="23">
-        <v>106698</v>
+        <v>109518</v>
       </c>
       <c r="I4" s="23">
-        <v>3324</v>
+        <v>3405</v>
       </c>
       <c r="J4" s="25">
-        <v>65126</v>
+        <v>66079</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,28 +2329,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="20">
-        <v>90672</v>
+        <v>92558</v>
       </c>
       <c r="D5" s="18">
-        <v>28927</v>
+        <v>29326</v>
       </c>
       <c r="E5" s="18">
         <v>148</v>
       </c>
       <c r="F5" s="21">
-        <v>35020</v>
+        <v>35386</v>
       </c>
       <c r="G5" s="20">
-        <v>38679</v>
+        <v>40643</v>
       </c>
       <c r="H5" s="18">
-        <v>17608</v>
+        <v>17837</v>
       </c>
       <c r="I5" s="18">
         <v>30</v>
       </c>
       <c r="J5" s="21">
-        <v>28016</v>
+        <v>28668</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2361,28 +2361,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="26">
-        <v>36076</v>
+        <v>36493</v>
       </c>
       <c r="D6" s="23">
-        <v>40298</v>
+        <v>40378</v>
       </c>
       <c r="E6" s="23">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="F6" s="25">
-        <v>18160</v>
+        <v>18270</v>
       </c>
       <c r="G6" s="26">
-        <v>12475</v>
+        <v>15012</v>
       </c>
       <c r="H6" s="23">
-        <v>20571</v>
+        <v>24382</v>
       </c>
       <c r="I6" s="23">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="J6" s="25">
-        <v>7000</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2393,28 +2393,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="20">
-        <v>10652</v>
+        <v>11192</v>
       </c>
       <c r="D7" s="18">
-        <v>8749</v>
+        <v>8852</v>
       </c>
       <c r="E7" s="18">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F7" s="21">
-        <v>7356</v>
+        <v>7429</v>
       </c>
       <c r="G7" s="20">
-        <v>3941</v>
+        <v>4215</v>
       </c>
       <c r="H7" s="18">
-        <v>4657</v>
+        <v>5115</v>
       </c>
       <c r="I7" s="18">
         <v>75</v>
       </c>
       <c r="J7" s="21">
-        <v>4492</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,28 +2425,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="26">
-        <v>23155</v>
+        <v>24145</v>
       </c>
       <c r="D8" s="23">
-        <v>28012</v>
+        <v>29271</v>
       </c>
       <c r="E8" s="23">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="F8" s="25">
-        <v>12973</v>
+        <v>13289</v>
       </c>
       <c r="G8" s="26">
-        <v>9516</v>
+        <v>10087</v>
       </c>
       <c r="H8" s="23">
-        <v>14832</v>
+        <v>16273</v>
       </c>
       <c r="I8" s="23">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J8" s="25">
-        <v>6908</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,28 +2457,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="20">
-        <v>80196</v>
+        <v>82989</v>
       </c>
       <c r="D9" s="18">
-        <v>68590</v>
+        <v>70183</v>
       </c>
       <c r="E9" s="18">
-        <v>5574</v>
+        <v>5581</v>
       </c>
       <c r="F9" s="21">
-        <v>41515</v>
+        <v>42000</v>
       </c>
       <c r="G9" s="20">
-        <v>16866</v>
+        <v>18203</v>
       </c>
       <c r="H9" s="18">
-        <v>37571</v>
+        <v>39051</v>
       </c>
       <c r="I9" s="18">
-        <v>5182</v>
+        <v>5222</v>
       </c>
       <c r="J9" s="21">
-        <v>25412</v>
+        <v>26169</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,28 +2489,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="26">
-        <v>13381</v>
+        <v>14268</v>
       </c>
       <c r="D10" s="23">
-        <v>27230</v>
+        <v>27534</v>
       </c>
       <c r="E10" s="23">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="F10" s="25">
-        <v>21696</v>
+        <v>21944</v>
       </c>
       <c r="G10" s="26">
-        <v>2131</v>
+        <v>2393</v>
       </c>
       <c r="H10" s="23">
-        <v>15239</v>
+        <v>16522</v>
       </c>
       <c r="I10" s="23">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="J10" s="25">
-        <v>9134</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2521,28 +2521,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="20">
-        <v>43927</v>
+        <v>46503</v>
       </c>
       <c r="D11" s="18">
-        <v>98621</v>
+        <v>99916</v>
       </c>
       <c r="E11" s="18">
-        <v>28995</v>
+        <v>29342</v>
       </c>
       <c r="F11" s="21">
-        <v>77739</v>
+        <v>78743</v>
       </c>
       <c r="G11" s="20">
-        <v>18081</v>
+        <v>18741</v>
       </c>
       <c r="H11" s="18">
-        <v>49291</v>
+        <v>50923</v>
       </c>
       <c r="I11" s="18">
-        <v>14445</v>
+        <v>14690</v>
       </c>
       <c r="J11" s="21">
-        <v>41252</v>
+        <v>42602</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2553,28 +2553,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="26">
-        <v>66264</v>
+        <v>90898</v>
       </c>
       <c r="D12" s="23">
-        <v>291972</v>
+        <v>301617</v>
       </c>
       <c r="E12" s="23">
-        <v>12553</v>
+        <v>12823</v>
       </c>
       <c r="F12" s="25">
-        <v>167250</v>
+        <v>168683</v>
       </c>
       <c r="G12" s="26">
-        <v>42283</v>
+        <v>43551</v>
       </c>
       <c r="H12" s="23">
-        <v>119879</v>
+        <v>139985</v>
       </c>
       <c r="I12" s="23">
-        <v>8389</v>
+        <v>8731</v>
       </c>
       <c r="J12" s="25">
-        <v>104982</v>
+        <v>108924</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,28 +2585,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="20">
-        <v>52495</v>
+        <v>52512</v>
       </c>
       <c r="D13" s="18">
-        <v>59656</v>
+        <v>60209</v>
       </c>
       <c r="E13" s="18">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F13" s="21">
-        <v>34956</v>
+        <v>35447</v>
       </c>
       <c r="G13" s="20">
-        <v>28531</v>
+        <v>32114</v>
       </c>
       <c r="H13" s="18">
-        <v>27328</v>
+        <v>29763</v>
       </c>
       <c r="I13" s="18">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13" s="21">
-        <v>12975</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,28 +2617,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="26">
-        <v>17141</v>
+        <v>18200</v>
       </c>
       <c r="D14" s="23">
-        <v>7234</v>
+        <v>7655</v>
       </c>
       <c r="E14" s="23">
         <v>0</v>
       </c>
       <c r="F14" s="25">
-        <v>7055</v>
+        <v>7521</v>
       </c>
       <c r="G14" s="26">
-        <v>11294</v>
+        <v>11356</v>
       </c>
       <c r="H14" s="23">
-        <v>2444</v>
+        <v>2569</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <v>5183</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2649,28 +2649,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="20">
-        <v>23046</v>
+        <v>24328</v>
       </c>
       <c r="D15" s="18">
-        <v>67303</v>
+        <v>68043</v>
       </c>
       <c r="E15" s="18">
-        <v>3258</v>
+        <v>3436</v>
       </c>
       <c r="F15" s="21">
-        <v>27692</v>
+        <v>28118</v>
       </c>
       <c r="G15" s="20">
-        <v>9527</v>
+        <v>11303</v>
       </c>
       <c r="H15" s="18">
-        <v>28801</v>
+        <v>29887</v>
       </c>
       <c r="I15" s="18">
-        <v>2989</v>
+        <v>3232</v>
       </c>
       <c r="J15" s="21">
-        <v>6815</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,28 +2681,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="26">
-        <v>20833</v>
+        <v>21647</v>
       </c>
       <c r="D16" s="23">
-        <v>29379</v>
+        <v>29685</v>
       </c>
       <c r="E16" s="23">
-        <v>2744</v>
+        <v>2801</v>
       </c>
       <c r="F16" s="25">
-        <v>19964</v>
+        <v>20543</v>
       </c>
       <c r="G16" s="26">
-        <v>10403</v>
+        <v>11252</v>
       </c>
       <c r="H16" s="23">
-        <v>16148</v>
+        <v>16868</v>
       </c>
       <c r="I16" s="23">
-        <v>1966</v>
+        <v>2107</v>
       </c>
       <c r="J16" s="25">
-        <v>12553</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,28 +2713,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>29058</v>
+        <v>29366</v>
       </c>
       <c r="D17" s="18">
-        <v>29707</v>
+        <v>29930</v>
       </c>
       <c r="E17" s="18">
-        <v>6482</v>
+        <v>6550</v>
       </c>
       <c r="F17" s="21">
-        <v>30567</v>
+        <v>31503</v>
       </c>
       <c r="G17" s="20">
-        <v>21145</v>
+        <v>22721</v>
       </c>
       <c r="H17" s="18">
-        <v>13708</v>
+        <v>14964</v>
       </c>
       <c r="I17" s="18">
-        <v>3867</v>
+        <v>4030</v>
       </c>
       <c r="J17" s="21">
-        <v>10489</v>
+        <v>11484</v>
       </c>
       <c r="K17" s="41"/>
     </row>
@@ -2746,28 +2746,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="23">
-        <v>30785</v>
+        <v>32429</v>
       </c>
       <c r="D18" s="23">
-        <v>31284</v>
+        <v>31896</v>
       </c>
       <c r="E18" s="23">
-        <v>3074</v>
+        <v>3217</v>
       </c>
       <c r="F18" s="25">
-        <v>8524</v>
+        <v>8654</v>
       </c>
       <c r="G18" s="23">
-        <v>8776</v>
+        <v>10337</v>
       </c>
       <c r="H18" s="23">
-        <v>15481</v>
+        <v>16505</v>
       </c>
       <c r="I18" s="23">
-        <v>890</v>
+        <v>1062</v>
       </c>
       <c r="J18" s="25">
-        <v>3095</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,35 +2777,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>861298</v>
+        <v>913165</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1124283</v>
+        <v>1151641</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>87448</v>
+        <v>89057</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>666234</v>
+        <v>676448</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>374912</v>
+        <v>397808</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>529606</v>
+        <v>571655</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>44128</v>
+        <v>45841</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>365142</v>
+        <v>380904</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2845,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,13 +2876,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="42">
-        <v>23901</v>
+        <v>23894</v>
       </c>
       <c r="C2" s="46">
         <v>0</v>
       </c>
       <c r="D2" s="46">
-        <v>23901</v>
+        <v>23894</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,13 +2890,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="42">
-        <v>19834</v>
+        <v>19830</v>
       </c>
       <c r="C3" s="46">
         <v>0</v>
       </c>
       <c r="D3" s="46">
-        <v>19834</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,13 +2904,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="42">
-        <v>43412</v>
+        <v>43460</v>
       </c>
       <c r="C4" s="46">
         <v>0</v>
       </c>
       <c r="D4" s="46">
-        <v>43412</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,13 +2918,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="42">
-        <v>57808</v>
+        <v>57805</v>
       </c>
       <c r="C5" s="46">
         <v>0</v>
       </c>
       <c r="D5" s="46">
-        <v>57808</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,13 +2932,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="42">
-        <v>38058</v>
+        <v>38057</v>
       </c>
       <c r="C6" s="46">
         <v>0</v>
       </c>
       <c r="D6" s="46">
-        <v>38058</v>
+        <v>38057</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2946,13 +2946,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="42">
-        <v>24458</v>
+        <v>24457</v>
       </c>
       <c r="C7" s="46">
         <v>0</v>
       </c>
       <c r="D7" s="46">
-        <v>24458</v>
+        <v>24457</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="42">
-        <v>48885</v>
+        <v>48881</v>
       </c>
       <c r="C10" s="46">
         <v>0</v>
       </c>
       <c r="D10" s="46">
-        <v>48885</v>
+        <v>48881</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,13 +3002,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="42">
-        <v>52129</v>
+        <v>52355</v>
       </c>
       <c r="C11" s="46">
         <v>0</v>
       </c>
       <c r="D11" s="46">
-        <v>52129</v>
+        <v>52355</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3016,13 +3016,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="42">
-        <v>58297</v>
+        <v>58300</v>
       </c>
       <c r="C12" s="46">
         <v>0</v>
       </c>
       <c r="D12" s="46">
-        <v>58297</v>
+        <v>58300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3030,13 +3030,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="42">
-        <v>58573</v>
+        <v>58564</v>
       </c>
       <c r="C13" s="46">
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>58573</v>
+        <v>58564</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,13 +3044,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="42">
-        <v>59922</v>
+        <v>59920</v>
       </c>
       <c r="C14" s="46">
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>59922</v>
+        <v>59920</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,13 +3058,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="42">
-        <v>56494</v>
+        <v>56624</v>
       </c>
       <c r="C15" s="46">
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>56494</v>
+        <v>56624</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,13 +3072,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="42">
-        <v>33229</v>
+        <v>33227</v>
       </c>
       <c r="C16" s="46">
         <v>0</v>
       </c>
       <c r="D16" s="46">
-        <v>33229</v>
+        <v>33227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,13 +3100,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="42">
-        <v>81893</v>
+        <v>81891</v>
       </c>
       <c r="C18" s="46">
         <v>0</v>
       </c>
       <c r="D18" s="46">
-        <v>81893</v>
+        <v>81891</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,13 +3114,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="42">
-        <v>98482</v>
+        <v>98546</v>
       </c>
       <c r="C19" s="46">
         <v>0</v>
       </c>
       <c r="D19" s="46">
-        <v>98482</v>
+        <v>98546</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3128,13 +3128,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="42">
-        <v>100381</v>
+        <v>100372</v>
       </c>
       <c r="C20" s="46">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="46">
-        <v>100511</v>
+        <v>100501</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,13 +3142,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="42">
-        <v>92207</v>
+        <v>92319</v>
       </c>
       <c r="C21" s="46">
         <v>497</v>
       </c>
       <c r="D21" s="46">
-        <v>92704</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,13 +3156,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="42">
-        <v>56263</v>
+        <v>56369</v>
       </c>
       <c r="C22" s="46">
         <v>444</v>
       </c>
       <c r="D22" s="46">
-        <v>56707</v>
+        <v>56813</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,13 +3170,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="42">
-        <v>30970</v>
+        <v>30947</v>
       </c>
       <c r="C23" s="46">
         <v>13601</v>
       </c>
       <c r="D23" s="46">
-        <v>44571</v>
+        <v>44548</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,10 +3187,10 @@
         <v>57920</v>
       </c>
       <c r="C24" s="46">
-        <v>16428</v>
+        <v>16427</v>
       </c>
       <c r="D24" s="46">
-        <v>74348</v>
+        <v>74347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,13 +3198,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="42">
-        <v>67052</v>
+        <v>67407</v>
       </c>
       <c r="C25" s="46">
-        <v>27130</v>
+        <v>26987</v>
       </c>
       <c r="D25" s="46">
-        <v>94182</v>
+        <v>94394</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,13 +3212,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="42">
-        <v>77720</v>
+        <v>77462</v>
       </c>
       <c r="C26" s="46">
-        <v>50285</v>
+        <v>50275</v>
       </c>
       <c r="D26" s="46">
-        <v>128005</v>
+        <v>127737</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,13 +3226,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="42">
-        <v>60040</v>
+        <v>60041</v>
       </c>
       <c r="C27" s="46">
-        <v>34672</v>
+        <v>34640</v>
       </c>
       <c r="D27" s="46">
-        <v>94712</v>
+        <v>94681</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,13 +3240,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="42">
-        <v>83421</v>
+        <v>83587</v>
       </c>
       <c r="C28" s="46">
-        <v>30539</v>
+        <v>30480</v>
       </c>
       <c r="D28" s="46">
-        <v>113960</v>
+        <v>114067</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="42">
-        <v>48246</v>
+        <v>48497</v>
       </c>
       <c r="C29" s="46">
-        <v>42714</v>
+        <v>42713</v>
       </c>
       <c r="D29" s="46">
-        <v>90960</v>
+        <v>91210</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,110 +3268,110 @@
         <v>44220</v>
       </c>
       <c r="B30" s="42">
-        <v>37908</v>
+        <v>37907</v>
       </c>
       <c r="C30" s="46">
-        <v>27747</v>
+        <v>27746</v>
       </c>
       <c r="D30" s="46">
-        <v>65655</v>
+        <v>65653</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="48">
         <v>44221</v>
       </c>
-      <c r="B31" s="52">
-        <v>57238</v>
-      </c>
-      <c r="C31" s="52">
-        <v>39119</v>
-      </c>
-      <c r="D31" s="52">
-        <v>96357</v>
+      <c r="B31" s="42">
+        <v>57519</v>
+      </c>
+      <c r="C31" s="42">
+        <v>39152</v>
+      </c>
+      <c r="D31" s="42">
+        <v>96671</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="48">
         <v>44222</v>
       </c>
-      <c r="B32" s="52">
-        <v>53050</v>
-      </c>
-      <c r="C32" s="52">
-        <v>48859</v>
-      </c>
-      <c r="D32" s="52">
-        <v>101909</v>
+      <c r="B32" s="42">
+        <v>53078</v>
+      </c>
+      <c r="C32" s="42">
+        <v>48913</v>
+      </c>
+      <c r="D32" s="42">
+        <v>101991</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="48">
         <v>44223</v>
       </c>
-      <c r="B33" s="52">
-        <v>53798</v>
-      </c>
-      <c r="C33" s="52">
-        <v>57956</v>
-      </c>
-      <c r="D33" s="52">
-        <v>111754</v>
+      <c r="B33" s="42">
+        <v>53804</v>
+      </c>
+      <c r="C33" s="42">
+        <v>58010</v>
+      </c>
+      <c r="D33" s="42">
+        <v>111814</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="48">
         <v>44224</v>
       </c>
-      <c r="B34" s="52">
-        <v>51518</v>
-      </c>
-      <c r="C34" s="52">
-        <v>48293</v>
-      </c>
-      <c r="D34" s="52">
-        <v>99811</v>
+      <c r="B34" s="42">
+        <v>51521</v>
+      </c>
+      <c r="C34" s="42">
+        <v>48498</v>
+      </c>
+      <c r="D34" s="42">
+        <v>100019</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="48">
         <v>44225</v>
       </c>
-      <c r="B35" s="52">
-        <v>56397</v>
-      </c>
-      <c r="C35" s="52">
-        <v>52360</v>
-      </c>
-      <c r="D35" s="52">
-        <v>108757</v>
+      <c r="B35" s="42">
+        <v>56460</v>
+      </c>
+      <c r="C35" s="42">
+        <v>52518</v>
+      </c>
+      <c r="D35" s="42">
+        <v>108978</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="48">
         <v>44226</v>
       </c>
-      <c r="B36" s="52">
-        <v>38423</v>
-      </c>
-      <c r="C36" s="52">
-        <v>46897</v>
-      </c>
-      <c r="D36" s="52">
-        <v>85320</v>
+      <c r="B36" s="42">
+        <v>38424</v>
+      </c>
+      <c r="C36" s="42">
+        <v>46898</v>
+      </c>
+      <c r="D36" s="42">
+        <v>85322</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="48">
         <v>44227</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B37" s="42">
         <v>31222</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="42">
         <v>31132</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="42">
         <v>62354</v>
       </c>
     </row>
@@ -3379,143 +3379,192 @@
       <c r="A38" s="48">
         <v>44228</v>
       </c>
-      <c r="B38" s="52">
-        <v>48149</v>
-      </c>
-      <c r="C38" s="52">
-        <v>64876</v>
-      </c>
-      <c r="D38" s="52">
-        <v>113025</v>
+      <c r="B38" s="42">
+        <v>48183</v>
+      </c>
+      <c r="C38" s="42">
+        <v>64961</v>
+      </c>
+      <c r="D38" s="42">
+        <v>113144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="48">
         <v>44229</v>
       </c>
-      <c r="B39" s="52">
-        <v>55959</v>
-      </c>
-      <c r="C39" s="52">
-        <v>68685</v>
-      </c>
-      <c r="D39" s="52">
-        <v>124644</v>
+      <c r="B39" s="42">
+        <v>56232</v>
+      </c>
+      <c r="C39" s="42">
+        <v>68783</v>
+      </c>
+      <c r="D39" s="42">
+        <v>125015</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="48">
         <v>44230</v>
       </c>
-      <c r="B40" s="52">
-        <v>55086</v>
-      </c>
-      <c r="C40" s="52">
-        <v>81341</v>
-      </c>
-      <c r="D40" s="52">
-        <v>136427</v>
+      <c r="B40" s="42">
+        <v>55087</v>
+      </c>
+      <c r="C40" s="42">
+        <v>81781</v>
+      </c>
+      <c r="D40" s="42">
+        <v>136868</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="48">
         <v>44231</v>
       </c>
-      <c r="B41" s="52">
-        <v>61085</v>
-      </c>
-      <c r="C41" s="52">
-        <v>71353</v>
-      </c>
-      <c r="D41" s="52">
-        <v>132438</v>
+      <c r="B41" s="42">
+        <v>61269</v>
+      </c>
+      <c r="C41" s="42">
+        <v>71615</v>
+      </c>
+      <c r="D41" s="42">
+        <v>132884</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="48">
         <v>44232</v>
       </c>
-      <c r="B42" s="52">
-        <v>56988</v>
-      </c>
-      <c r="C42" s="52">
-        <v>70340</v>
-      </c>
-      <c r="D42" s="52">
-        <v>127328</v>
+      <c r="B42" s="42">
+        <v>57713</v>
+      </c>
+      <c r="C42" s="42">
+        <v>71080</v>
+      </c>
+      <c r="D42" s="42">
+        <v>128793</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="48">
         <v>44233</v>
       </c>
-      <c r="B43" s="52">
-        <v>45727</v>
-      </c>
-      <c r="C43" s="52">
-        <v>53108</v>
-      </c>
-      <c r="D43" s="52">
-        <v>98835</v>
+      <c r="B43" s="42">
+        <v>46295</v>
+      </c>
+      <c r="C43" s="42">
+        <v>53700</v>
+      </c>
+      <c r="D43" s="42">
+        <v>99995</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="48">
         <v>44234</v>
       </c>
-      <c r="B44" s="52">
-        <v>32239</v>
-      </c>
-      <c r="C44" s="52">
-        <v>25636</v>
-      </c>
-      <c r="D44" s="52">
-        <v>57875</v>
+      <c r="B44" s="42">
+        <v>32341</v>
+      </c>
+      <c r="C44" s="42">
+        <v>25984</v>
+      </c>
+      <c r="D44" s="42">
+        <v>58325</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="48">
         <v>44235</v>
       </c>
-      <c r="B45" s="52">
-        <v>42377</v>
-      </c>
-      <c r="C45" s="52">
-        <v>44618</v>
-      </c>
-      <c r="D45" s="52">
-        <v>86995</v>
+      <c r="B45" s="42">
+        <v>49470</v>
+      </c>
+      <c r="C45" s="42">
+        <v>47530</v>
+      </c>
+      <c r="D45" s="42">
+        <v>97000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="48">
         <v>44236</v>
       </c>
-      <c r="B46" s="52">
-        <v>56293</v>
-      </c>
-      <c r="C46" s="52">
-        <v>55744</v>
-      </c>
-      <c r="D46" s="52">
-        <v>112037</v>
-      </c>
+      <c r="B46" s="42">
+        <v>62637</v>
+      </c>
+      <c r="C46" s="42">
+        <v>64384</v>
+      </c>
+      <c r="D46" s="42">
+        <v>127021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="48">
+        <v>44237</v>
+      </c>
+      <c r="B47" s="42">
+        <v>68425</v>
+      </c>
+      <c r="C47" s="42">
+        <v>59847</v>
+      </c>
+      <c r="D47" s="42">
+        <v>128272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="74">
         <f>SUM(B2:B54)</f>
-        <v>2405156</v>
-      </c>
-      <c r="C55" s="15">
-        <f t="shared" ref="C55:D55" si="0">SUM(C2:C54)</f>
-        <v>1104504</v>
-      </c>
-      <c r="D55" s="15">
-        <f t="shared" si="0"/>
-        <v>3509660</v>
+        <v>2490423</v>
+      </c>
+      <c r="C55" s="74">
+        <f t="shared" ref="C55" si="0">SUM(C2:C54)</f>
+        <v>1178725</v>
+      </c>
+      <c r="D55" s="74">
+        <f>SUM(D2:D54)</f>
+        <v>3669148</v>
       </c>
     </row>
   </sheetData>
